--- a/src/main/resources/com/cauh/iso/xdocreport/SOP_Training_Deviation_Log_01.xlsx
+++ b/src/main/resources/com/cauh/iso/xdocreport/SOP_Training_Deviation_Log_01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SafeSoft\IdeaProjects\SOP\cauh-iso-ms\src\main\resources\com\cauh\iso\xdocreport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Safesoft 자료\2021\ISO_MS\중앙대학교병원 시스템 적용 RFs\TEMPLATE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED103631-134F-44DA-854F-872E6E0BA7AA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E82058AD-3AE2-4321-B539-892EF3DAC7ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SOP TR Deviation Log" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
     <author>SafeSoft</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{928987E2-8921-4026-B92B-9B582CD656FD}">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{88601FAF-479F-4BAC-8007-A2137B7A0A86}">
       <text>
         <r>
           <rPr>
@@ -53,11 +53,11 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-jx:area(lastCell="R7")</t>
+jx:area(lastCell="R4")</t>
         </r>
       </text>
     </comment>
-    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{64F7CA0D-19E2-4363-AA9C-EF9AD3D2BA0D}">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{2A15DBDF-DCCA-4BAC-A423-F8D486ED4808}">
       <text>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-jx:each(items="DTOList" var="dto" lastCell="R7")</t>
+jx:each(items="DTOList" var="dto" lastCell="R4")</t>
         </r>
       </text>
     </comment>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Deviation Details</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -149,14 +149,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Effective Date: DD-MMM-YYYY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISO 14155 SOP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Confirmation Date of SOP Training Deviation</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -173,37 +165,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>RF Document ID: CAUH-QM002-RF09</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SOP Information</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Version : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>draft</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOP Training Deviation Log</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Status* : Training Completed / or Not Completed</t>
+    <t>Date of Completion</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -211,75 +177,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>${dto.confirmationDate}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${dto.sopDocId}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${dto.sopTitle}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${dto.version}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${dto.effectiveDate}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>${dto.dueDate}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>${dto.reporterName}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${dto.reportedDate}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${dto.approverName}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${dto.approvedDate}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${dto.deviationDetails}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${dto.correctiveAction}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${dto.correctiveDate}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${dto.preventiveAction}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${dto.preventiveDate}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>${dto.status}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Date of Completion</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>${dto.completionDate}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${dto.confirmationDate}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${dto.sopDocId}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${dto.sopTitle}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${dto.version}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${dto.effectiveDate}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${dto.reporterName}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${dto.reportedDate}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${dto.approverName}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${dto.approvedDate}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${dto.deviationDetails}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${dto.correctiveAction}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${dto.correctiveDate}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${dto.preventiveAction}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${dto.preventiveDate}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -292,7 +254,7 @@
     <numFmt numFmtId="177" formatCode="[$-409]d/mmm/yyyy;@"/>
     <numFmt numFmtId="178" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,15 +278,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
@@ -364,26 +317,8 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -397,13 +332,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -430,7 +365,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -521,18 +456,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+        <color theme="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -653,75 +582,6 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -763,7 +623,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -773,157 +633,115 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -947,66 +765,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>275551</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>114944</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1417122</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>114785</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="4180"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="275551" y="114944"/>
-          <a:ext cx="1533777" cy="750635"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{53640926-AAD7-44D8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1272,10 +1030,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:G6"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="80" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
@@ -1299,261 +1057,188 @@
     <col min="19" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="24.75" customHeight="1">
-      <c r="A1" s="11"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="19" t="s">
+    <row r="1" spans="1:18" ht="18" thickBot="1"/>
+    <row r="2" spans="1:18" s="4" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="14"/>
+      <c r="J2" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="25"/>
+      <c r="L2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="4" customFormat="1" ht="38.25" customHeight="1" thickBot="1">
+      <c r="A3" s="13"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="20"/>
+      <c r="E3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="30"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="23"/>
     </row>
-    <row r="2" spans="1:18" ht="34.5" customHeight="1">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="17" t="s">
+    <row r="4" spans="1:18" ht="84.9" customHeight="1">
+      <c r="A4" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="18"/>
+      <c r="E4" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="N4" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" s="39" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" ht="24" customHeight="1" thickBot="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="25"/>
+    <row r="5" spans="1:18">
+      <c r="B5" s="8"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
     </row>
-    <row r="4" spans="1:18" ht="18" thickBot="1"/>
-    <row r="5" spans="1:18" s="4" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A5" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="40"/>
-      <c r="J5" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="31"/>
-      <c r="L5" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="M5" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="N5" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="P5" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="R5" s="28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" s="4" customFormat="1" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A6" s="39"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L6" s="37"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="29"/>
-    </row>
-    <row r="7" spans="1:18" ht="84.9" customHeight="1">
-      <c r="A7" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="G7" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="K7" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="M7" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="N7" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="O7" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="P7" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q7" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="R7" s="49" t="s">
-        <v>30</v>
-      </c>
+    <row r="7" spans="1:18">
+      <c r="B7" s="10"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="B8" s="8"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
+      <c r="B8" s="9"/>
     </row>
-    <row r="10" spans="1:18">
-      <c r="B10" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="B11" s="9"/>
+    <row r="20" spans="11:11">
+      <c r="K20" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="P5:P6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="C2:R2"/>
-    <mergeCell ref="C1:R1"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="M3:R3"/>
+  <mergeCells count="13">
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.40509259259259262" right="0.54036458333333337" top="0.31901041666666669" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="0.40509259259259262" right="0.54036458333333337" top="0.83333333333333337" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader xml:space="preserve">&amp;R&amp;"-,굵게"
-</oddHeader>
-    <oddFooter xml:space="preserve">&amp;C&amp;"-,굵게"&amp;9&amp;K000000 Page &amp;P  / &amp;N
-CONFIDENTIAL </oddFooter>
+    <oddHeader>&amp;L&amp;G&amp;R&amp;"-,굵게"&amp;18
+SOP Training Deviation Log</oddHeader>
+    <oddFooter xml:space="preserve">&amp;L&amp;"-,굵게"&amp;9CAUH-QM002-RF07 v1.0
+SOP Training Deviation Log
+Effective Date: 19-APR-2021&amp;C&amp;"-,굵게"&amp;9&amp;K000000
+ Page &amp;P / &amp;N&amp;R&amp;"-,굵은 기울임꼴"&amp;9CONFIDENTIAL </oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
+  <legacyDrawingHF r:id="rId3"/>
 </worksheet>
 </file>
--- a/src/main/resources/com/cauh/iso/xdocreport/SOP_Training_Deviation_Log_01.xlsx
+++ b/src/main/resources/com/cauh/iso/xdocreport/SOP_Training_Deviation_Log_01.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Safesoft 자료\2021\ISO_MS\중앙대학교병원 시스템 적용 RFs\TEMPLATE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01. project\06. SOP LMS\04. safesoft\src\isoms\src\main\resources\com\cauh\iso\xdocreport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E82058AD-3AE2-4321-B539-892EF3DAC7ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BD5DE5-66A7-45A1-BAC7-5BC52846B6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SOP TR Deviation Log" sheetId="1" r:id="rId1"/>
+    <sheet name="SOP Tr Deviation Log" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'SOP TR Deviation Log'!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'SOP Tr Deviation Log'!$A$1:$R$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'SOP Tr Deviation Log'!$1:$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -33,31 +34,7 @@
     <author>SafeSoft</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{88601FAF-479F-4BAC-8007-A2137B7A0A86}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>SafeSoft:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-jx:area(lastCell="R4")</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{2A15DBDF-DCCA-4BAC-A423-F8D486ED4808}">
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{80CED164-FA8A-4B6C-92AA-F663EB089DB8}">
       <text>
         <r>
           <rPr>
@@ -86,7 +63,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confirmation Date of SOP Training Deviation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOP Information</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reported by</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Confirmed and Approved by </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
   <si>
     <t>Deviation Details</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -96,11 +93,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>(Expected) Completion Date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Preventive Action</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Status*</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Preventive Action</t>
+    <t>Date of Comletion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOP Doc. ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOP Title</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -108,36 +121,8 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOP Doc. ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Effective date</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Confirmed and Approved by </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>No</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Training
@@ -145,32 +130,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Reported by</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Confirmation Date of SOP Training Deviation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOP Title</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(Expected) Completion Date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(Expected) Completion Date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SOP Information</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Date of Completion</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SOP Training Deviation Log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>${DTOList.indexOf(dto)+1}</t>
@@ -279,21 +248,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+      <name val="times new roma"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -308,28 +268,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -360,12 +320,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor indexed="65"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -380,20 +340,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -403,193 +350,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </left>
       <right style="thin">
         <color theme="1"/>
@@ -598,7 +359,7 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="0" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,7 +374,37 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,125 +414,95 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -752,7 +513,6 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF808080"/>
       <color rgb="FF0000FF"/>
     </mruColors>
   </colors>
@@ -1030,213 +790,240 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R20"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScale="80" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D5"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="6.75" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.19921875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.69921875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="14.09765625" style="1" customWidth="1"/>
-    <col min="8" max="9" width="11.8984375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.3984375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.69921875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17" style="1" customWidth="1"/>
-    <col min="13" max="13" width="23.69921875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.59765625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.3984375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.19921875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.5" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.5" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.69921875" style="1"/>
+    <col min="1" max="1" width="4.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="1" customWidth="1"/>
+    <col min="8" max="11" width="6.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.75" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.25" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.75" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="6.875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.125" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="6.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18" thickBot="1"/>
-    <row r="2" spans="1:18" s="4" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A2" s="12" t="s">
+    <row r="1" spans="1:18" ht="18">
+      <c r="A1" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="12"/>
+    </row>
+    <row r="3" spans="1:18" s="2" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A3" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="26"/>
+      <c r="J3" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="29"/>
+      <c r="L3" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="2" customFormat="1" ht="38.25" customHeight="1" thickBot="1">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="E4" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="H4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+    </row>
+    <row r="5" spans="1:18" s="3" customFormat="1" ht="70.900000000000006" customHeight="1">
+      <c r="A5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="25"/>
-      <c r="L2" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="P2" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="R2" s="22" t="s">
+      <c r="B5" s="17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" s="4" customFormat="1" ht="38.25" customHeight="1" thickBot="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="30"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="23"/>
-    </row>
-    <row r="4" spans="1:18" ht="84.9" customHeight="1">
-      <c r="A4" s="31" t="s">
+      <c r="C5" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="D5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="E5" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="F5" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="G5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="34" t="s">
+      <c r="H5" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="35" t="s">
+      <c r="I5" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="J5" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="K5" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="36" t="s">
+      <c r="L5" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="36" t="s">
+      <c r="M5" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="37" t="s">
+      <c r="N5" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="M4" s="37" t="s">
+      <c r="O5" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="38" t="s">
+      <c r="P5" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="O4" s="37" t="s">
+      <c r="Q5" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="P4" s="38" t="s">
+      <c r="R5" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="Q4" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4" s="39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="B5" s="8"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="B7" s="10"/>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="B8" s="9"/>
-    </row>
-    <row r="20" spans="11:11">
-      <c r="K20" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.40509259259259262" right="0.54036458333333337" top="0.83333333333333337" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <printOptions verticalCentered="1"/>
+  <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="9" scale="85" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
-    <oddHeader>&amp;L&amp;G&amp;R&amp;"-,굵게"&amp;18
-SOP Training Deviation Log</oddHeader>
-    <oddFooter xml:space="preserve">&amp;L&amp;"-,굵게"&amp;9CAUH-QM002-RF07 v1.0
-SOP Training Deviation Log
-Effective Date: 19-APR-2021&amp;C&amp;"-,굵게"&amp;9&amp;K000000
- Page &amp;P / &amp;N&amp;R&amp;"-,굵은 기울임꼴"&amp;9CONFIDENTIAL </oddFooter>
+    <oddHeader xml:space="preserve">&amp;L&amp;G&amp;R&amp;"Arial,보통"&amp;10Page &amp;P/&amp;N    </oddHeader>
+    <oddFooter>&amp;L&amp;"arila,보통"&amp;10SSP-402-09(v1.0)
+Effective Date:30-Aug-2021&amp;C&amp;"Arial,보통"&amp;10SafeSoft Co. Ltd.&amp;R&amp;"Times New Roman,보통"&amp;10
+&amp;"Arial,기울임꼴"Confidentia&amp;"Times New Roman,보통"l</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
   <legacyDrawingHF r:id="rId3"/>
